--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\AutoPart\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sharedprojects\AutoPart\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,70 +350,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,379 +714,379 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="26">
-        <v>0.5</v>
+      <c r="G4" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25" t="s">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25" t="s">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="26">
-        <v>0</v>
+      <c r="G11" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25" t="s">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="25" t="s">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="16">
-        <v>0</v>
+      <c r="G14" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="15" t="s">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29" t="s">
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="29" t="s">
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29" t="s">
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="1"/>
@@ -1094,40 +1094,40 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="17">
         <f>AVERAGE(C3:C27,G3:G23)</f>
-        <v>0.46739130434782611</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="21">
-        <v>0</v>
+      <c r="C26" s="11">
+        <v>1</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="1"/>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sharedprojects\AutoPart\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\AutoPart\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Module</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>History Pemotongan Retur Penjualan</t>
+  </si>
+  <si>
+    <t>History Pemotongan Retur Pembelian</t>
+  </si>
+  <si>
+    <t>Setting Fee Salesman</t>
+  </si>
+  <si>
+    <t>Fee Salesman</t>
+  </si>
+  <si>
+    <t>Lap. Fee Salesman</t>
+  </si>
+  <si>
+    <t>Pembayaran Fee Salesman</t>
+  </si>
+  <si>
+    <t>Lap Buffer Stock / Suggestion Order</t>
+  </si>
+  <si>
+    <t>Inventory Movement</t>
   </si>
 </sst>
 </file>
@@ -696,20 +720,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G27"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,10 +803,10 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="12" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,7 +819,7 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
@@ -813,7 +837,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
@@ -829,7 +853,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -845,7 +869,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G9" s="13">
         <v>0</v>
@@ -861,7 +885,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="13">
         <v>0</v>
@@ -877,10 +901,10 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,7 +917,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
@@ -907,12 +931,12 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,13 +947,11 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="20"/>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="13">
         <v>1</v>
       </c>
     </row>
@@ -941,11 +963,11 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="20"/>
+      <c r="F15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -957,12 +979,12 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
+      <c r="E16" s="21"/>
+      <c r="F16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -973,12 +995,14 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,160 +1015,218 @@
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="G21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
+      <c r="E22" s="26"/>
+      <c r="F22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="11">
         <v>0</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="17">
-        <f>AVERAGE(C3:C27,G3:G23)</f>
-        <v>0.54347826086956519</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="17">
+        <f>AVERAGE(C3:C29,G3:G29)</f>
+        <v>0.57407407407407407</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="E3:E16"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="A21:A29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C27">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="C3:C27 C29">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1157,7 +1239,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G23">
+  <conditionalFormatting sqref="G3:G29">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D08E0BC-69C3-426E-885A-88A9D118C52A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1166,7 +1262,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D08E0BC-69C3-426E-885A-88A9D118C52A}</x14:id>
+          <x14:id>{85AA9E6A-88C0-4170-ACF9-92A3C4B3E7C2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1185,7 +1281,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:C27</xm:sqref>
+          <xm:sqref>C3:C27 C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D08E0BC-69C3-426E-885A-88A9D118C52A}">
@@ -1196,7 +1292,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G3:G23</xm:sqref>
+          <xm:sqref>G3:G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85AA9E6A-88C0-4170-ACF9-92A3C4B3E7C2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -723,7 +723,7 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>47</v>
       </c>
       <c r="G21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G31" s="17">
         <f>AVERAGE(C3:C29,G3:G29)</f>
-        <v>0.57407407407407407</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Module</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Inventory Movement</t>
+  </si>
+  <si>
+    <t>Aging AR</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
   </si>
 </sst>
 </file>
@@ -720,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,25 +1201,43 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="28"/>
+      <c r="F30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="28"/>
+      <c r="F31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="17">
-        <f>AVERAGE(C3:C29,G3:G29)</f>
-        <v>0.61111111111111116</v>
+      <c r="G33" s="17">
+        <f>AVERAGE(C3:C29,G3:G31)</f>
+        <v>0.5892857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1245,7 @@
     <mergeCell ref="E3:E16"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="E17:E24"/>
-    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E25:E31"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A29"/>
   </mergeCells>
@@ -1239,7 +1263,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G29">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1292,7 +1316,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G3:G29</xm:sqref>
+          <xm:sqref>G3:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85AA9E6A-88C0-4170-ACF9-92A3C4B3E7C2}">

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G33" s="17">
         <f>AVERAGE(C3:C29,G3:G31)</f>
-        <v>0.5892857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Module</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Aging Stock</t>
   </si>
 </sst>
 </file>
@@ -726,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="12" t="s">
@@ -1049,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="8" t="s">
@@ -1219,25 +1222,34 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" s="28"/>
       <c r="F31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="28"/>
+      <c r="F32" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="17">
-        <f>AVERAGE(C3:C29,G3:G31)</f>
-        <v>0.6071428571428571</v>
+      <c r="G34" s="17">
+        <f>AVERAGE(C3:C29,G3:G32)</f>
+        <v>0.63157894736842102</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1257,7 @@
     <mergeCell ref="E3:E16"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="E17:E24"/>
-    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="E25:E32"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A29"/>
   </mergeCells>
@@ -1263,7 +1275,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G31">
+  <conditionalFormatting sqref="G3:G32">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1316,7 +1328,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G3:G31</xm:sqref>
+          <xm:sqref>G3:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85AA9E6A-88C0-4170-ACF9-92A3C4B3E7C2}">

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -732,7 +732,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G34" s="17">
         <f>AVERAGE(C3:C29,G3:G32)</f>
-        <v>0.63157894736842102</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -732,7 +732,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="8" t="s">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G34" s="17">
         <f>AVERAGE(C3:C29,G3:G32)</f>
-        <v>0.66666666666666663</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -732,7 +732,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>49</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G34" s="17">
         <f>AVERAGE(C3:C29,G3:G32)</f>
-        <v>0.68421052631578949</v>
+        <v>0.70175438596491224</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -732,7 +732,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G34" s="17">
         <f>AVERAGE(C3:C29,G3:G32)</f>
-        <v>0.70175438596491224</v>
+        <v>0.75438596491228072</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Progress.xlsx
+++ b/assets/Progress.xlsx
@@ -732,7 +732,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1175,7 @@
         <v>52</v>
       </c>
       <c r="G27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="G31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G34" s="17">
         <f>AVERAGE(C3:C29,G3:G32)</f>
-        <v>0.75438596491228072</v>
+        <v>0.80701754385964908</v>
       </c>
     </row>
   </sheetData>
